--- a/pytest_project/excel_data/Contact/contact.xlsx
+++ b/pytest_project/excel_data/Contact/contact.xlsx
@@ -25,10 +25,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>iMyMac Supporter Email: support@imymac.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>If you have any suggestions, such as the website and service, contact us by email.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -50,6 +46,10 @@
   </si>
   <si>
     <t>标题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iMyMac Support Team Email: support@imymac.com</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -378,8 +378,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -390,15 +390,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>0</v>
@@ -406,18 +406,18 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
